--- a/ZumNet.Web/Content/Forms/IMPORT/개발원가견적.xlsx
+++ b/ZumNet.Web/Content/Forms/IMPORT/개발원가견적.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09 사업\10 유지보수\01 크레신\2305 모델별원가, 익명게시판 외\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrlee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E2B839-F602-4708-AA63-4E3FDD9E1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08AA8F3-66E9-4692-A52C-99FC754CA0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="645" windowWidth="16260" windowHeight="16725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="15930" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>모델번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>VH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -917,9 +921,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -957,9 +961,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,26 +996,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,26 +1031,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1237,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1221,7 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1345,8 +1315,11 @@
       <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AF1" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
